--- a/biology/Botanique/Curcuma_petiolata/Curcuma_petiolata.xlsx
+++ b/biology/Botanique/Curcuma_petiolata/Curcuma_petiolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curcuma petiolata
 Le Temu putri (Curcuma petiolata) est une espèce de plante herbacée rhizomateuse vivace du genre Curcuma de la famille des Zingibéracées.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,10 +555,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée comme plante médicinale en Indonésie.
-Elle aide à la digestion, est un remède aux douleurs d'estomac, favorise l'appétit, aide à régénérer le sang des femmes qui viennent d'accoucher, et est indiquée contre les fièvres dues aux maladies infectieuses[1].
+Elle aide à la digestion, est un remède aux douleurs d'estomac, favorise l'appétit, aide à régénérer le sang des femmes qui viennent d'accoucher, et est indiquée contre les fièvres dues aux maladies infectieuses.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Curcuma cordata Wall., Pl. Asiat. Rar. 1: 8 (1829).
 Curcuma petiolaris auct., Gard. Chron. 1871: 6 (1871).</t>
